--- a/forms/contact/chw_supervisor-create.xlsx
+++ b/forms/contact/chw_supervisor-create.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Tija Mbararieny\Research Work\HIDGA Digital Health\CHT Toolkit and Forms\Community Testing Forms\config-covid-community-testing-master_Aug 24 2022\forms\contact\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Tija Mbararieny\Research Work\HIDGA Digital Health\CHT Toolkit and Forms\Communty Testing Bodaboda_CHV Test Server_Server 3\community-testing-config-test\forms\contact\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="123">
   <si>
     <t>type</t>
   </si>
@@ -191,15 +191,6 @@
     <t>Namba ya Usajili ya mtumiaji wa huduma hii</t>
   </si>
   <si>
-    <t>facility_id</t>
-  </si>
-  <si>
-    <t>Place ID of the logged in user</t>
-  </si>
-  <si>
-    <t>Kitambulisho cha mahali cha mtumizi wa huduma hii</t>
-  </si>
-  <si>
     <t>Name of the logged in user</t>
   </si>
   <si>
@@ -222,9 +213,6 @@
   </si>
   <si>
     <t>Jina la mtu</t>
-  </si>
-  <si>
-    <t>../../person/name</t>
   </si>
   <si>
     <t>person_place_name</t>
@@ -400,6 +388,9 @@
   <si>
     <t>contact:chw_supervisor:create</t>
   </si>
+  <si>
+    <t>facility_id</t>
+  </si>
 </sst>
 </file>
 
@@ -408,7 +399,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\-mm\-yyyy\ hh\-mm\-ss"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -465,6 +456,11 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -498,7 +494,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -565,11 +561,143 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="29">
+  <dxfs count="39">
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D2E9"/>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D2E9"/>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEAD1DC"/>
+          <bgColor rgb="FFEAD1DC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFF2CC"/>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF9900"/>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE5CD"/>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCFE2F3"/>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCFE2F3"/>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB7B7B7"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9EAD3"/>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEAD1DC"/>
+          <bgColor rgb="FFEAD1DC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFC27BA0"/>
@@ -745,14 +873,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEAD1DC"/>
-          <bgColor rgb="FFEAD1DC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FFCCCCCC"/>
       </font>
@@ -787,26 +907,6 @@
         <patternFill patternType="solid">
           <fgColor rgb="FF980000"/>
           <bgColor rgb="FF980000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1104,17 +1204,18 @@
   <dimension ref="A1:AC999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C17" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C33" sqref="C33"/>
+      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.5546875" customWidth="1"/>
     <col min="2" max="2" width="28.33203125" customWidth="1"/>
-    <col min="3" max="4" width="43.33203125" customWidth="1"/>
+    <col min="3" max="3" width="59.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43.33203125" customWidth="1"/>
     <col min="5" max="5" width="14.44140625" customWidth="1"/>
     <col min="6" max="6" width="49" customWidth="1"/>
     <col min="7" max="7" width="17.44140625" customWidth="1"/>
@@ -1307,43 +1408,41 @@
       <c r="AC4" s="15"/>
     </row>
     <row r="5" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>56</v>
+      <c r="B5" s="28" t="s">
+        <v>122</v>
       </c>
-      <c r="C5" s="15" t="s">
-        <v>57</v>
+      <c r="C5" s="28" t="s">
+        <v>60</v>
       </c>
-      <c r="D5" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="15"/>
-      <c r="S5" s="15"/>
-      <c r="T5" s="15"/>
-      <c r="U5" s="15"/>
-      <c r="V5" s="15"/>
-      <c r="W5" s="15"/>
-      <c r="X5" s="15"/>
-      <c r="Y5" s="15"/>
-      <c r="Z5" s="15"/>
-      <c r="AA5" s="15"/>
-      <c r="AB5" s="15"/>
-      <c r="AC5" s="15"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="23"/>
+      <c r="S5" s="23"/>
+      <c r="T5" s="23"/>
+      <c r="U5" s="23"/>
+      <c r="V5" s="23"/>
+      <c r="W5" s="23"/>
+      <c r="X5" s="23"/>
+      <c r="Y5" s="23"/>
+      <c r="Z5" s="23"/>
+      <c r="AA5" s="23"/>
+      <c r="AB5" s="23"/>
+      <c r="AC5" s="23"/>
     </row>
     <row r="6" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
@@ -1353,10 +1452,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E6" s="15"/>
       <c r="F6" s="15"/>
@@ -1386,7 +1485,7 @@
     </row>
     <row r="7" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="15"/>
@@ -1419,7 +1518,7 @@
     </row>
     <row r="8" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
@@ -1455,10 +1554,10 @@
         <v>20</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="15"/>
@@ -1489,16 +1588,16 @@
     </row>
     <row r="10" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E10" s="15"/>
       <c r="F10" s="15"/>
@@ -1507,7 +1606,7 @@
       <c r="I10" s="15"/>
       <c r="J10" s="15"/>
       <c r="K10" s="15" t="s">
-        <v>67</v>
+        <v>115</v>
       </c>
       <c r="L10" s="15"/>
       <c r="M10" s="15"/>
@@ -1530,16 +1629,16 @@
     </row>
     <row r="11" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>68</v>
-      </c>
       <c r="C11" s="24" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E11" s="15"/>
       <c r="F11" s="15"/>
@@ -1548,7 +1647,7 @@
       <c r="I11" s="15"/>
       <c r="J11" s="15"/>
       <c r="K11" s="15" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="L11" s="15"/>
       <c r="M11" s="15"/>
@@ -1574,24 +1673,24 @@
         <v>52</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="15"/>
       <c r="G12" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H12" s="15"/>
       <c r="I12" s="15"/>
       <c r="J12" s="15"/>
       <c r="K12" s="13" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="L12" s="15"/>
       <c r="M12" s="15"/>
@@ -1620,15 +1719,15 @@
         <v>0</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E13" s="15"/>
       <c r="F13" s="15"/>
       <c r="G13" s="15" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H13" s="15"/>
       <c r="I13" s="15"/>
@@ -1661,15 +1760,15 @@
         <v>3</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E14" s="15"/>
       <c r="F14" s="15"/>
       <c r="G14" s="15" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H14" s="15"/>
       <c r="I14" s="15"/>
@@ -1696,16 +1795,16 @@
     </row>
     <row r="15" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E15" s="15"/>
       <c r="F15" s="15"/>
@@ -1735,7 +1834,7 @@
     </row>
     <row r="16" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B16" s="7"/>
       <c r="C16" s="15"/>
@@ -1771,18 +1870,18 @@
         <v>20</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E17" s="15"/>
       <c r="F17" s="15"/>
       <c r="G17" s="15" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="H17" s="15"/>
       <c r="I17" s="15"/>
@@ -1809,21 +1908,21 @@
     </row>
     <row r="18" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E18" s="20"/>
       <c r="F18" s="20"/>
       <c r="G18" s="21" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H18" s="20"/>
       <c r="I18" s="20"/>
@@ -1831,13 +1930,13 @@
       <c r="K18" s="15"/>
       <c r="L18" s="20"/>
       <c r="M18" s="21" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="N18" s="21" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="O18" s="21" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="P18" s="20"/>
       <c r="Q18" s="20"/>
@@ -1862,10 +1961,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E19" s="20" t="s">
         <v>27</v>
@@ -1897,16 +1996,16 @@
     </row>
     <row r="20" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E20" s="15" t="s">
         <v>27</v>
@@ -1938,38 +2037,38 @@
     </row>
     <row r="21" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
       </c>
       <c r="F21" s="15"/>
       <c r="G21" s="15" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="H21" s="15" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="I21" s="15" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="J21" s="15"/>
       <c r="K21" s="20"/>
       <c r="L21" s="20"/>
       <c r="M21" s="15" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="N21" s="15" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="O21" s="15"/>
       <c r="P21" s="15"/>
@@ -1989,38 +2088,38 @@
     </row>
     <row r="22" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E22" s="15" t="s">
         <v>30</v>
       </c>
       <c r="F22" s="15"/>
       <c r="G22" s="15" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="H22" s="15" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="I22" s="15" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="J22" s="15"/>
       <c r="K22" s="20"/>
       <c r="L22" s="20"/>
       <c r="M22" s="15" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="N22" s="15" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="O22" s="15"/>
       <c r="P22" s="15"/>
@@ -2043,18 +2142,18 @@
         <v>52</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C23" s="23" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D23" s="23" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E23" s="23"/>
       <c r="F23" s="23"/>
       <c r="G23" s="23" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H23" s="23"/>
       <c r="I23" s="23"/>
@@ -2081,13 +2180,13 @@
     </row>
     <row r="24" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D24" s="15"/>
       <c r="E24" s="15"/>
@@ -2121,10 +2220,10 @@
         <v>20</v>
       </c>
       <c r="B25" s="23" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C25" s="23" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D25" s="23"/>
       <c r="E25" s="23"/>
@@ -2155,16 +2254,16 @@
     </row>
     <row r="26" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="23" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C26" s="23" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D26" s="23" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E26" s="23"/>
       <c r="F26" s="23"/>
@@ -2194,16 +2293,16 @@
     </row>
     <row r="27" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="23" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B27" s="23" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C27" s="23" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D27" s="23" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E27" s="23"/>
       <c r="F27" s="23"/>
@@ -2233,16 +2332,16 @@
     </row>
     <row r="28" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="23" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B28" s="23" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C28" s="23" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D28" s="23" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E28" s="23"/>
       <c r="F28" s="23"/>
@@ -2272,16 +2371,16 @@
     </row>
     <row r="29" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="23" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B29" s="23" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C29" s="23" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D29" s="23" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E29" s="23"/>
       <c r="F29" s="23"/>
@@ -2290,7 +2389,7 @@
       <c r="I29" s="23"/>
       <c r="J29" s="23"/>
       <c r="K29" s="23" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="L29" s="23"/>
       <c r="M29" s="23"/>
@@ -2313,16 +2412,16 @@
     </row>
     <row r="30" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="23" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B30" s="23" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C30" s="23" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D30" s="23" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E30" s="23"/>
       <c r="F30" s="23"/>
@@ -2331,7 +2430,7 @@
       <c r="I30" s="23"/>
       <c r="J30" s="23"/>
       <c r="K30" s="23" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="L30" s="23"/>
       <c r="M30" s="23"/>
@@ -2354,16 +2453,16 @@
     </row>
     <row r="31" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="23" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B31" s="23" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C31" s="23" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D31" s="23" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E31" s="23"/>
       <c r="F31" s="23"/>
@@ -2372,7 +2471,7 @@
       <c r="I31" s="23"/>
       <c r="J31" s="23"/>
       <c r="K31" s="23" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="L31" s="23"/>
       <c r="M31" s="23"/>
@@ -2395,7 +2494,7 @@
     </row>
     <row r="32" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="23" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B32" s="23"/>
       <c r="C32" s="23"/>
@@ -2428,7 +2527,7 @@
     </row>
     <row r="33" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="23" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B33" s="23"/>
       <c r="C33" s="23"/>
@@ -32407,148 +32506,198 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G12:G15">
-    <cfRule type="expression" dxfId="28" priority="1">
+    <cfRule type="expression" dxfId="38" priority="11">
       <formula>AND($G12 = "", $A12 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12:G15">
-    <cfRule type="expression" dxfId="27" priority="2">
+    <cfRule type="expression" dxfId="37" priority="12">
       <formula>AND($A12="end repeat", $B12 = "", $C12 = "", $E12 = "", $F12 = "", $G12 = "", $H12 = "", $I12 = "", $G12 = "", $L12 = "", $M12 = "", $O12 = "", $P12 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12:G15">
-    <cfRule type="expression" dxfId="26" priority="3">
+    <cfRule type="expression" dxfId="36" priority="13">
       <formula>AND($A12="end group", $B12 = "", $C12 = "", $E12 = "", $F12 = "", $G12 = "", $H12 = "", $I12 = "", $G12 = "", $L12 = "", $M12 = "", $O12 = "", $P12 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K1:K11 L1:AC999 K16:K999 A1:J999">
-    <cfRule type="containsText" dxfId="25" priority="4" operator="containsText" text="calculate">
+  <conditionalFormatting sqref="K16:K999 K1:K11 L1:AC999 A1:J4 A6:J999 D5:J5">
+    <cfRule type="containsText" dxfId="35" priority="14" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K1:K11 L1:AC999 K16:K999 A1:J999">
-    <cfRule type="expression" dxfId="24" priority="5">
+  <conditionalFormatting sqref="K16:K999 K1:K11 L1:AC999 A1:J4 A6:J999 D5:J5">
+    <cfRule type="expression" dxfId="34" priority="15">
       <formula>AND($A1="begin group", NOT($B1 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1:G11 H1:J999 K1:K11 L1:AC999 G16:G999 K16:K999 A1:F999">
-    <cfRule type="expression" dxfId="23" priority="6">
+  <conditionalFormatting sqref="G16:G999 K16:K999 G1:G11 H1:J999 K1:K11 L1:AC999 A1:F4 A6:F999 D5:F5">
+    <cfRule type="expression" dxfId="33" priority="16">
       <formula>AND($A1="end group", $B1 = "", $C1 = "", $E1 = "", $F1 = "", $G1 = "", $H1 = "", $I1 = "", $K1 = "", $L1 = "", $M1 = "", $O1 = "", $P1 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K1:K11 L1:AC999 K16:K999 A1:J999">
-    <cfRule type="cellIs" dxfId="22" priority="7" operator="equal">
+  <conditionalFormatting sqref="K16:K999 K1:K11 L1:AC999 A1:J4 A6:J999 D5:J5">
+    <cfRule type="cellIs" dxfId="32" priority="17" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="K16:K999 K1:K11">
+    <cfRule type="expression" dxfId="31" priority="20">
+      <formula>AND($K1 = "", $A1 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1:D4 C6:D999 D5">
+    <cfRule type="expression" dxfId="30" priority="21">
+      <formula>AND(AND(NOT($A1 = "end group"), NOT($A1 = "end repeat"), NOT($A1 = "")), $C1 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B4 B6:B999">
+    <cfRule type="expression" dxfId="29" priority="22">
+      <formula>AND(AND(NOT($A1 = "end group"), NOT($A1 = "end repeat"), NOT($A1 = "")), $B1 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:A4 A6:A999">
+    <cfRule type="cellIs" dxfId="28" priority="23" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1">
+    <cfRule type="cellIs" dxfId="27" priority="25" operator="notEqual">
+      <formula>"name"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1:D1">
+    <cfRule type="notContainsText" dxfId="26" priority="26" operator="notContains" text="label">
+      <formula>ISERROR(SEARCH(("label"),(C1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1">
+    <cfRule type="cellIs" dxfId="25" priority="27" operator="notEqual">
+      <formula>"required"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1">
+    <cfRule type="cellIs" dxfId="24" priority="28" operator="notEqual">
+      <formula>"relevant"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G1">
+    <cfRule type="cellIs" dxfId="23" priority="29" operator="notEqual">
+      <formula>"appearance"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H1">
+    <cfRule type="cellIs" dxfId="22" priority="30" operator="notEqual">
+      <formula>"constraint"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I1:J1">
+    <cfRule type="notContainsText" dxfId="21" priority="31" operator="notContains" text="constraint_message">
+      <formula>ISERROR(SEARCH(("constraint_message"),(I1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K1">
+    <cfRule type="cellIs" dxfId="20" priority="32" operator="notEqual">
+      <formula>"calculation"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L1">
+    <cfRule type="cellIs" dxfId="19" priority="33" operator="notEqual">
+      <formula>"choice_filter"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M1:N1">
+    <cfRule type="notContainsText" dxfId="18" priority="34" operator="notContains" text="hint">
+      <formula>ISERROR(SEARCH(("hint"),(M1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O1">
+    <cfRule type="cellIs" dxfId="17" priority="35" operator="notEqual">
+      <formula>"default"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P1:AC1">
+    <cfRule type="cellIs" dxfId="16" priority="36" operator="notEqual">
+      <formula>"media::image"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I1:J999">
+    <cfRule type="expression" dxfId="15" priority="37">
+      <formula>AND(NOT($H1 = ""), $I1 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K16:K999 K1:K11 L1:AC999 A1:J4 A6:J999 D5:J5">
+    <cfRule type="expression" dxfId="14" priority="38">
+      <formula>AND($A1="begin repeat", NOT($B1 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G16:G999 K16:K999 G1:G11 H1:J999 K1:K11 L1:AC999 A1:F4 A6:F999 D5:F5">
+    <cfRule type="expression" dxfId="13" priority="39">
+      <formula>AND($A1="end repeat", $B1 = "", $C1 = "", $E1 = "", $F1 = "", $G1 = "", $H1 = "", $I1 = "", $K1 = "", $L1 = "", $M1 = "", $O1 = "", $P1 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="21" priority="8">
+    <cfRule type="expression" dxfId="12" priority="68">
       <formula>AND(A1 = "type", COUNTIF($A$1:$A$993, "begin group") = COUNTIF($A$1:$A$993, "end group"))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="20" priority="9">
+    <cfRule type="expression" dxfId="11" priority="69">
       <formula>OR(NOT(A1 = "type"), NOT(COUNTIF($A$1:$A$984, "begin group") = COUNTIF($A$1:$A$993, "end group")))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K1:K11 K16:K999">
-    <cfRule type="expression" dxfId="19" priority="10">
-      <formula>AND($K1 = "", $A1 = "calculate")</formula>
+  <conditionalFormatting sqref="B2:B4 B6:B999">
+    <cfRule type="expression" dxfId="10" priority="78">
+      <formula>COUNTIF($B$2:$B$992,B2)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:D999">
-    <cfRule type="expression" dxfId="18" priority="11">
-      <formula>AND(AND(NOT($A1 = "end group"), NOT($A1 = "end repeat"), NOT($A1 = "")), $C1 = "")</formula>
+  <conditionalFormatting sqref="A5:C5">
+    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="calculate">
+      <formula>NOT(ISERROR(SEARCH(("calculate"),(A5))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B999">
-    <cfRule type="expression" dxfId="17" priority="12">
-      <formula>AND(AND(NOT($A1 = "end group"), NOT($A1 = "end repeat"), NOT($A1 = "")), $B1 = "")</formula>
+  <conditionalFormatting sqref="A5:C5">
+    <cfRule type="expression" dxfId="8" priority="2">
+      <formula>AND($A5="begin group", NOT($B5 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A999">
-    <cfRule type="cellIs" dxfId="16" priority="13" operator="equal">
+  <conditionalFormatting sqref="A5:C5">
+    <cfRule type="expression" dxfId="7" priority="3">
+      <formula>AND($A5="end group", $B5 = "", $C5 = "", $D5 = "", $E5 = "", $F5 = "", $G5 = "", $H5 = "", $I5 = "", $J5 = "", $K5 = "", $L5 = "", $M5 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5:C5">
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5">
+    <cfRule type="expression" dxfId="5" priority="5">
+      <formula>AND(AND(NOT($A5 = "end group"), NOT($A5 = "end repeat"), NOT($A5 = "")), $C5 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5">
+    <cfRule type="expression" dxfId="4" priority="6">
+      <formula>AND(AND(NOT($A5 = "end group"), NOT($A5 = "end repeat"), NOT($A5 = "")), $B5 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5">
+    <cfRule type="cellIs" dxfId="3" priority="7" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B999">
-    <cfRule type="expression" dxfId="15" priority="14">
-      <formula>COUNTIF($B$2:$B$992,B2)&gt;1</formula>
+  <conditionalFormatting sqref="B5">
+    <cfRule type="expression" dxfId="2" priority="8">
+      <formula>COUNTIF($B$2:$B$972,B5)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1">
-    <cfRule type="cellIs" dxfId="14" priority="15" operator="notEqual">
-      <formula>"name"</formula>
+  <conditionalFormatting sqref="A5:C5">
+    <cfRule type="expression" dxfId="1" priority="9">
+      <formula>AND($A5="begin repeat", NOT($B5 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:D1">
-    <cfRule type="notContainsText" dxfId="13" priority="16" operator="notContains" text="label">
-      <formula>ISERROR(SEARCH(("label"),(C1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E1">
-    <cfRule type="cellIs" dxfId="12" priority="17" operator="notEqual">
-      <formula>"required"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F1">
-    <cfRule type="cellIs" dxfId="11" priority="18" operator="notEqual">
-      <formula>"relevant"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G1">
-    <cfRule type="cellIs" dxfId="10" priority="19" operator="notEqual">
-      <formula>"appearance"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H1">
-    <cfRule type="cellIs" dxfId="9" priority="20" operator="notEqual">
-      <formula>"constraint"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I1:J1">
-    <cfRule type="notContainsText" dxfId="8" priority="21" operator="notContains" text="constraint_message">
-      <formula>ISERROR(SEARCH(("constraint_message"),(I1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K1">
-    <cfRule type="cellIs" dxfId="7" priority="22" operator="notEqual">
-      <formula>"calculation"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L1">
-    <cfRule type="cellIs" dxfId="6" priority="23" operator="notEqual">
-      <formula>"choice_filter"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M1:N1">
-    <cfRule type="notContainsText" dxfId="5" priority="24" operator="notContains" text="hint">
-      <formula>ISERROR(SEARCH(("hint"),(M1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O1">
-    <cfRule type="cellIs" dxfId="4" priority="25" operator="notEqual">
-      <formula>"default"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P1:AC1">
-    <cfRule type="cellIs" dxfId="3" priority="26" operator="notEqual">
-      <formula>"media::image"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I1:J999">
-    <cfRule type="expression" dxfId="2" priority="27">
-      <formula>AND(NOT($H1 = ""), $I1 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K1:K11 L1:AC999 K16:K999 A1:J999">
-    <cfRule type="expression" dxfId="1" priority="28">
-      <formula>AND($A1="begin repeat", NOT($B1 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G1:G11 H1:J999 K1:K11 L1:AC999 G16:G999 K16:K999 A1:F999">
-    <cfRule type="expression" dxfId="0" priority="29">
-      <formula>AND($A1="end repeat", $B1 = "", $C1 = "", $E1 = "", $F1 = "", $G1 = "", $H1 = "", $I1 = "", $K1 = "", $L1 = "", $M1 = "", $O1 = "", $P1 = "")</formula>
+  <conditionalFormatting sqref="A5:C5">
+    <cfRule type="expression" dxfId="0" priority="10">
+      <formula>AND($A5="end repeat", $B5 = "", $C5 = "", $D5 = "", $E5 = "", $F5 = "", $G5 = "", $H5 = "", $I5 = "", $J5 = "", $K5 = "", $L5 = "", $M5 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -35245,14 +35394,14 @@
     </row>
     <row r="2" spans="1:26" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C2" s="12">
         <f ca="1">NOW()</f>
-        <v>44803.72345208333</v>
+        <v>44834.671558333335</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>49</v>

--- a/forms/contact/chw_supervisor-create.xlsx
+++ b/forms/contact/chw_supervisor-create.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="124">
   <si>
     <t>type</t>
   </si>
@@ -391,6 +391,9 @@
   <si>
     <t>facility_id</t>
   </si>
+  <si>
+    <t>../inputs/user/name</t>
+  </si>
 </sst>
 </file>
 
@@ -568,7 +571,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="39">
+  <dxfs count="53">
     <dxf>
       <font>
         <color rgb="FFC27BA0"/>
@@ -592,37 +595,13 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEAD1DC"/>
-          <bgColor rgb="FFEAD1DC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
-        <color rgb="FFCCCCCC"/>
+        <color rgb="FFFFFFFF"/>
       </font>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFFFF2CC"/>
-          <bgColor rgb="FFFFF2CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF9900"/>
-          <bgColor rgb="FFFF9900"/>
+          <fgColor rgb="FF980000"/>
+          <bgColor rgb="FF980000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -667,6 +646,184 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFD9EAD3"/>
           <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D2E9"/>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D2E9"/>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF980000"/>
+          <bgColor rgb="FF980000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE5CD"/>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCFE2F3"/>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCFE2F3"/>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB7B7B7"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9EAD3"/>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D2E9"/>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D2E9"/>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEAD1DC"/>
+          <bgColor rgb="FFEAD1DC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE5CD"/>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCFE2F3"/>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCFE2F3"/>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB7B7B7"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9EAD3"/>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFF2CC"/>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF9900"/>
+          <bgColor rgb="FFFF9900"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1204,10 +1361,10 @@
   <dimension ref="A1:AC999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomRight" activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1605,8 +1762,8 @@
       <c r="H10" s="15"/>
       <c r="I10" s="15"/>
       <c r="J10" s="15"/>
-      <c r="K10" s="15" t="s">
-        <v>115</v>
+      <c r="K10" s="23" t="s">
+        <v>123</v>
       </c>
       <c r="L10" s="15"/>
       <c r="M10" s="15"/>
@@ -32506,198 +32663,233 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G12:G15">
-    <cfRule type="expression" dxfId="38" priority="11">
+    <cfRule type="expression" dxfId="52" priority="25">
       <formula>AND($G12 = "", $A12 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12:G15">
-    <cfRule type="expression" dxfId="37" priority="12">
+    <cfRule type="expression" dxfId="51" priority="26">
       <formula>AND($A12="end repeat", $B12 = "", $C12 = "", $E12 = "", $F12 = "", $G12 = "", $H12 = "", $I12 = "", $G12 = "", $L12 = "", $M12 = "", $O12 = "", $P12 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12:G15">
-    <cfRule type="expression" dxfId="36" priority="13">
+    <cfRule type="expression" dxfId="50" priority="27">
       <formula>AND($A12="end group", $B12 = "", $C12 = "", $E12 = "", $F12 = "", $G12 = "", $H12 = "", $I12 = "", $G12 = "", $L12 = "", $M12 = "", $O12 = "", $P12 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K16:K999 K1:K11 L1:AC999 A1:J4 A6:J999 D5:J5">
-    <cfRule type="containsText" dxfId="35" priority="14" operator="containsText" text="calculate">
+  <conditionalFormatting sqref="K16:K999 K1:K9 L1:AC999 A1:J4 A6:J999 D5:J5 K11">
+    <cfRule type="containsText" dxfId="49" priority="28" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K16:K999 K1:K11 L1:AC999 A1:J4 A6:J999 D5:J5">
-    <cfRule type="expression" dxfId="34" priority="15">
+  <conditionalFormatting sqref="K16:K999 K1:K9 L1:AC999 A1:J4 A6:J999 D5:J5 K11">
+    <cfRule type="expression" dxfId="48" priority="29">
       <formula>AND($A1="begin group", NOT($B1 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G16:G999 K16:K999 G1:G11 H1:J999 K1:K11 L1:AC999 A1:F4 A6:F999 D5:F5">
-    <cfRule type="expression" dxfId="33" priority="16">
+  <conditionalFormatting sqref="G16:G999 K16:K999 G1:G11 H1:J999 K1:K9 L1:AC999 A1:F4 A6:F999 D5:F5 K11">
+    <cfRule type="expression" dxfId="47" priority="30">
       <formula>AND($A1="end group", $B1 = "", $C1 = "", $E1 = "", $F1 = "", $G1 = "", $H1 = "", $I1 = "", $K1 = "", $L1 = "", $M1 = "", $O1 = "", $P1 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K16:K999 K1:K11 L1:AC999 A1:J4 A6:J999 D5:J5">
-    <cfRule type="cellIs" dxfId="32" priority="17" operator="equal">
+  <conditionalFormatting sqref="K16:K999 K1:K9 L1:AC999 A1:J4 A6:J999 D5:J5 K11">
+    <cfRule type="cellIs" dxfId="46" priority="31" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K16:K999 K1:K11">
-    <cfRule type="expression" dxfId="31" priority="20">
+  <conditionalFormatting sqref="K16:K999 K1:K9 K11">
+    <cfRule type="expression" dxfId="45" priority="34">
       <formula>AND($K1 = "", $A1 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:D4 C6:D999 D5">
-    <cfRule type="expression" dxfId="30" priority="21">
+    <cfRule type="expression" dxfId="44" priority="35">
       <formula>AND(AND(NOT($A1 = "end group"), NOT($A1 = "end repeat"), NOT($A1 = "")), $C1 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B4 B6:B999">
-    <cfRule type="expression" dxfId="29" priority="22">
+    <cfRule type="expression" dxfId="43" priority="36">
       <formula>AND(AND(NOT($A1 = "end group"), NOT($A1 = "end repeat"), NOT($A1 = "")), $B1 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A4 A6:A999">
-    <cfRule type="cellIs" dxfId="28" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="37" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="cellIs" dxfId="27" priority="25" operator="notEqual">
+    <cfRule type="cellIs" dxfId="41" priority="39" operator="notEqual">
       <formula>"name"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:D1">
-    <cfRule type="notContainsText" dxfId="26" priority="26" operator="notContains" text="label">
+    <cfRule type="notContainsText" dxfId="40" priority="40" operator="notContains" text="label">
       <formula>ISERROR(SEARCH(("label"),(C1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1">
-    <cfRule type="cellIs" dxfId="25" priority="27" operator="notEqual">
+    <cfRule type="cellIs" dxfId="39" priority="41" operator="notEqual">
       <formula>"required"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1">
-    <cfRule type="cellIs" dxfId="24" priority="28" operator="notEqual">
+    <cfRule type="cellIs" dxfId="38" priority="42" operator="notEqual">
       <formula>"relevant"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1">
-    <cfRule type="cellIs" dxfId="23" priority="29" operator="notEqual">
+    <cfRule type="cellIs" dxfId="37" priority="43" operator="notEqual">
       <formula>"appearance"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1">
-    <cfRule type="cellIs" dxfId="22" priority="30" operator="notEqual">
+    <cfRule type="cellIs" dxfId="36" priority="44" operator="notEqual">
       <formula>"constraint"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:J1">
-    <cfRule type="notContainsText" dxfId="21" priority="31" operator="notContains" text="constraint_message">
+    <cfRule type="notContainsText" dxfId="35" priority="45" operator="notContains" text="constraint_message">
       <formula>ISERROR(SEARCH(("constraint_message"),(I1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1">
-    <cfRule type="cellIs" dxfId="20" priority="32" operator="notEqual">
+    <cfRule type="cellIs" dxfId="34" priority="46" operator="notEqual">
       <formula>"calculation"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1">
-    <cfRule type="cellIs" dxfId="19" priority="33" operator="notEqual">
+    <cfRule type="cellIs" dxfId="33" priority="47" operator="notEqual">
       <formula>"choice_filter"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1:N1">
-    <cfRule type="notContainsText" dxfId="18" priority="34" operator="notContains" text="hint">
+    <cfRule type="notContainsText" dxfId="32" priority="48" operator="notContains" text="hint">
       <formula>ISERROR(SEARCH(("hint"),(M1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1">
-    <cfRule type="cellIs" dxfId="17" priority="35" operator="notEqual">
+    <cfRule type="cellIs" dxfId="31" priority="49" operator="notEqual">
       <formula>"default"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P1:AC1">
-    <cfRule type="cellIs" dxfId="16" priority="36" operator="notEqual">
+    <cfRule type="cellIs" dxfId="30" priority="50" operator="notEqual">
       <formula>"media::image"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:J999">
-    <cfRule type="expression" dxfId="15" priority="37">
+    <cfRule type="expression" dxfId="29" priority="51">
       <formula>AND(NOT($H1 = ""), $I1 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K16:K999 K1:K11 L1:AC999 A1:J4 A6:J999 D5:J5">
-    <cfRule type="expression" dxfId="14" priority="38">
+  <conditionalFormatting sqref="K16:K999 K1:K9 L1:AC999 A1:J4 A6:J999 D5:J5 K11">
+    <cfRule type="expression" dxfId="28" priority="52">
       <formula>AND($A1="begin repeat", NOT($B1 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G16:G999 K16:K999 G1:G11 H1:J999 K1:K11 L1:AC999 A1:F4 A6:F999 D5:F5">
-    <cfRule type="expression" dxfId="13" priority="39">
+  <conditionalFormatting sqref="G16:G999 K16:K999 G1:G11 H1:J999 K1:K9 L1:AC999 A1:F4 A6:F999 D5:F5 K11">
+    <cfRule type="expression" dxfId="27" priority="53">
       <formula>AND($A1="end repeat", $B1 = "", $C1 = "", $E1 = "", $F1 = "", $G1 = "", $H1 = "", $I1 = "", $K1 = "", $L1 = "", $M1 = "", $O1 = "", $P1 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="12" priority="68">
+    <cfRule type="expression" dxfId="26" priority="82">
       <formula>AND(A1 = "type", COUNTIF($A$1:$A$993, "begin group") = COUNTIF($A$1:$A$993, "end group"))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="11" priority="69">
+    <cfRule type="expression" dxfId="25" priority="83">
       <formula>OR(NOT(A1 = "type"), NOT(COUNTIF($A$1:$A$984, "begin group") = COUNTIF($A$1:$A$993, "end group")))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B4 B6:B999">
-    <cfRule type="expression" dxfId="10" priority="78">
+    <cfRule type="expression" dxfId="24" priority="92">
       <formula>COUNTIF($B$2:$B$992,B2)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:C5">
-    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="21" priority="15" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A5))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:C5">
-    <cfRule type="expression" dxfId="8" priority="2">
+    <cfRule type="expression" dxfId="20" priority="16">
       <formula>AND($A5="begin group", NOT($B5 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:C5">
-    <cfRule type="expression" dxfId="7" priority="3">
+    <cfRule type="expression" dxfId="19" priority="17">
       <formula>AND($A5="end group", $B5 = "", $C5 = "", $D5 = "", $E5 = "", $F5 = "", $G5 = "", $H5 = "", $I5 = "", $J5 = "", $K5 = "", $L5 = "", $M5 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:C5">
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="18" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="expression" dxfId="5" priority="5">
+    <cfRule type="expression" dxfId="23" priority="19">
       <formula>AND(AND(NOT($A5 = "end group"), NOT($A5 = "end repeat"), NOT($A5 = "")), $C5 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5">
-    <cfRule type="expression" dxfId="4" priority="6">
+    <cfRule type="expression" dxfId="17" priority="20">
       <formula>AND(AND(NOT($A5 = "end group"), NOT($A5 = "end repeat"), NOT($A5 = "")), $B5 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="cellIs" dxfId="3" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="21" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5">
-    <cfRule type="expression" dxfId="2" priority="8">
+    <cfRule type="expression" dxfId="16" priority="22">
       <formula>COUNTIF($B$2:$B$972,B5)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:C5">
-    <cfRule type="expression" dxfId="1" priority="9">
+    <cfRule type="expression" dxfId="15" priority="23">
       <formula>AND($A5="begin repeat", NOT($B5 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:C5">
-    <cfRule type="expression" dxfId="0" priority="10">
+    <cfRule type="expression" dxfId="14" priority="24">
       <formula>AND($A5="end repeat", $B5 = "", $C5 = "", $D5 = "", $E5 = "", $F5 = "", $G5 = "", $H5 = "", $I5 = "", $J5 = "", $K5 = "", $L5 = "", $M5 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K10">
+    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="calculate">
+      <formula>NOT(ISERROR(SEARCH(("calculate"),(K10))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K10">
+    <cfRule type="expression" dxfId="5" priority="2">
+      <formula>AND($A10="begin group", NOT($B10 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K10">
+    <cfRule type="expression" dxfId="4" priority="3">
+      <formula>AND($A10="end group", $B10 = "", $C10 = "", $E10 = "", $F10 = "", $G10 = "", $H10 = "", $I10 = "", $K10 = "", $L10 = "", $M10 = "", $O10 = "", $P10 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K10">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K10">
+    <cfRule type="expression" dxfId="2" priority="5">
+      <formula>AND($K10 = "", $A10 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K10">
+    <cfRule type="expression" dxfId="1" priority="6">
+      <formula>AND($A10="begin repeat", NOT($B10 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K10">
+    <cfRule type="expression" dxfId="0" priority="7">
+      <formula>AND($A10="end repeat", $B10 = "", $C10 = "", $E10 = "", $F10 = "", $G10 = "", $H10 = "", $I10 = "", $K10 = "", $L10 = "", $M10 = "", $O10 = "", $P10 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -35401,7 +35593,7 @@
       </c>
       <c r="C2" s="12">
         <f ca="1">NOW()</f>
-        <v>44834.671558333335</v>
+        <v>44837.668474999999</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>49</v>

--- a/forms/contact/chw_supervisor-create.xlsx
+++ b/forms/contact/chw_supervisor-create.xlsx
@@ -392,7 +392,7 @@
     <t>facility_id</t>
   </si>
   <si>
-    <t>../inputs/user/name</t>
+    <t>../init/person_name</t>
   </si>
 </sst>
 </file>
@@ -571,84 +571,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="53">
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D2E9"/>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D2E9"/>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF980000"/>
-          <bgColor rgb="FF980000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFCE5CD"/>
-          <bgColor rgb="FFFCE5CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCFE2F3"/>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCFE2F3"/>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB7B7B7"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9EAD3"/>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="46">
     <dxf>
       <font>
         <color rgb="FFC27BA0"/>
@@ -757,10 +680,29 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFF2CC"/>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFFF0000"/>
           <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF9900"/>
+          <bgColor rgb="FFFF9900"/>
         </patternFill>
       </fill>
     </dxf>
@@ -805,25 +747,6 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFD9EAD3"/>
           <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFF2CC"/>
-          <bgColor rgb="FFFFF2CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF9900"/>
-          <bgColor rgb="FFFF9900"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1361,7 +1284,7 @@
   <dimension ref="A1:AC999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="K10" sqref="K10"/>
@@ -32663,197 +32586,197 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G12:G15">
-    <cfRule type="expression" dxfId="52" priority="25">
+    <cfRule type="expression" dxfId="45" priority="25">
       <formula>AND($G12 = "", $A12 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12:G15">
-    <cfRule type="expression" dxfId="51" priority="26">
+    <cfRule type="expression" dxfId="44" priority="26">
       <formula>AND($A12="end repeat", $B12 = "", $C12 = "", $E12 = "", $F12 = "", $G12 = "", $H12 = "", $I12 = "", $G12 = "", $L12 = "", $M12 = "", $O12 = "", $P12 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12:G15">
-    <cfRule type="expression" dxfId="50" priority="27">
+    <cfRule type="expression" dxfId="43" priority="27">
       <formula>AND($A12="end group", $B12 = "", $C12 = "", $E12 = "", $F12 = "", $G12 = "", $H12 = "", $I12 = "", $G12 = "", $L12 = "", $M12 = "", $O12 = "", $P12 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K16:K999 K1:K9 L1:AC999 A1:J4 A6:J999 D5:J5 K11">
-    <cfRule type="containsText" dxfId="49" priority="28" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="42" priority="28" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K16:K999 K1:K9 L1:AC999 A1:J4 A6:J999 D5:J5 K11">
-    <cfRule type="expression" dxfId="48" priority="29">
+    <cfRule type="expression" dxfId="41" priority="29">
       <formula>AND($A1="begin group", NOT($B1 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16:G999 K16:K999 G1:G11 H1:J999 K1:K9 L1:AC999 A1:F4 A6:F999 D5:F5 K11">
-    <cfRule type="expression" dxfId="47" priority="30">
+    <cfRule type="expression" dxfId="40" priority="30">
       <formula>AND($A1="end group", $B1 = "", $C1 = "", $E1 = "", $F1 = "", $G1 = "", $H1 = "", $I1 = "", $K1 = "", $L1 = "", $M1 = "", $O1 = "", $P1 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K16:K999 K1:K9 L1:AC999 A1:J4 A6:J999 D5:J5 K11">
-    <cfRule type="cellIs" dxfId="46" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="31" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K16:K999 K1:K9 K11">
-    <cfRule type="expression" dxfId="45" priority="34">
+    <cfRule type="expression" dxfId="38" priority="34">
       <formula>AND($K1 = "", $A1 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:D4 C6:D999 D5">
-    <cfRule type="expression" dxfId="44" priority="35">
+    <cfRule type="expression" dxfId="37" priority="35">
       <formula>AND(AND(NOT($A1 = "end group"), NOT($A1 = "end repeat"), NOT($A1 = "")), $C1 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B4 B6:B999">
-    <cfRule type="expression" dxfId="43" priority="36">
+    <cfRule type="expression" dxfId="36" priority="36">
       <formula>AND(AND(NOT($A1 = "end group"), NOT($A1 = "end repeat"), NOT($A1 = "")), $B1 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A4 A6:A999">
-    <cfRule type="cellIs" dxfId="42" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="37" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="cellIs" dxfId="41" priority="39" operator="notEqual">
+    <cfRule type="cellIs" dxfId="34" priority="39" operator="notEqual">
       <formula>"name"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:D1">
-    <cfRule type="notContainsText" dxfId="40" priority="40" operator="notContains" text="label">
+    <cfRule type="notContainsText" dxfId="33" priority="40" operator="notContains" text="label">
       <formula>ISERROR(SEARCH(("label"),(C1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1">
-    <cfRule type="cellIs" dxfId="39" priority="41" operator="notEqual">
+    <cfRule type="cellIs" dxfId="32" priority="41" operator="notEqual">
       <formula>"required"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1">
-    <cfRule type="cellIs" dxfId="38" priority="42" operator="notEqual">
+    <cfRule type="cellIs" dxfId="31" priority="42" operator="notEqual">
       <formula>"relevant"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1">
-    <cfRule type="cellIs" dxfId="37" priority="43" operator="notEqual">
+    <cfRule type="cellIs" dxfId="30" priority="43" operator="notEqual">
       <formula>"appearance"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1">
-    <cfRule type="cellIs" dxfId="36" priority="44" operator="notEqual">
+    <cfRule type="cellIs" dxfId="29" priority="44" operator="notEqual">
       <formula>"constraint"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:J1">
-    <cfRule type="notContainsText" dxfId="35" priority="45" operator="notContains" text="constraint_message">
+    <cfRule type="notContainsText" dxfId="28" priority="45" operator="notContains" text="constraint_message">
       <formula>ISERROR(SEARCH(("constraint_message"),(I1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1">
-    <cfRule type="cellIs" dxfId="34" priority="46" operator="notEqual">
+    <cfRule type="cellIs" dxfId="27" priority="46" operator="notEqual">
       <formula>"calculation"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1">
-    <cfRule type="cellIs" dxfId="33" priority="47" operator="notEqual">
+    <cfRule type="cellIs" dxfId="26" priority="47" operator="notEqual">
       <formula>"choice_filter"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1:N1">
-    <cfRule type="notContainsText" dxfId="32" priority="48" operator="notContains" text="hint">
+    <cfRule type="notContainsText" dxfId="25" priority="48" operator="notContains" text="hint">
       <formula>ISERROR(SEARCH(("hint"),(M1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1">
-    <cfRule type="cellIs" dxfId="31" priority="49" operator="notEqual">
+    <cfRule type="cellIs" dxfId="24" priority="49" operator="notEqual">
       <formula>"default"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P1:AC1">
-    <cfRule type="cellIs" dxfId="30" priority="50" operator="notEqual">
+    <cfRule type="cellIs" dxfId="23" priority="50" operator="notEqual">
       <formula>"media::image"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:J999">
-    <cfRule type="expression" dxfId="29" priority="51">
+    <cfRule type="expression" dxfId="22" priority="51">
       <formula>AND(NOT($H1 = ""), $I1 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K16:K999 K1:K9 L1:AC999 A1:J4 A6:J999 D5:J5 K11">
-    <cfRule type="expression" dxfId="28" priority="52">
+    <cfRule type="expression" dxfId="21" priority="52">
       <formula>AND($A1="begin repeat", NOT($B1 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16:G999 K16:K999 G1:G11 H1:J999 K1:K9 L1:AC999 A1:F4 A6:F999 D5:F5 K11">
-    <cfRule type="expression" dxfId="27" priority="53">
+    <cfRule type="expression" dxfId="20" priority="53">
       <formula>AND($A1="end repeat", $B1 = "", $C1 = "", $E1 = "", $F1 = "", $G1 = "", $H1 = "", $I1 = "", $K1 = "", $L1 = "", $M1 = "", $O1 = "", $P1 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="26" priority="82">
+    <cfRule type="expression" dxfId="19" priority="82">
       <formula>AND(A1 = "type", COUNTIF($A$1:$A$993, "begin group") = COUNTIF($A$1:$A$993, "end group"))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="25" priority="83">
+    <cfRule type="expression" dxfId="18" priority="83">
       <formula>OR(NOT(A1 = "type"), NOT(COUNTIF($A$1:$A$984, "begin group") = COUNTIF($A$1:$A$993, "end group")))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B4 B6:B999">
-    <cfRule type="expression" dxfId="24" priority="92">
+    <cfRule type="expression" dxfId="17" priority="92">
       <formula>COUNTIF($B$2:$B$992,B2)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:C5">
-    <cfRule type="containsText" dxfId="21" priority="15" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="16" priority="15" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A5))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:C5">
-    <cfRule type="expression" dxfId="20" priority="16">
+    <cfRule type="expression" dxfId="15" priority="16">
       <formula>AND($A5="begin group", NOT($B5 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:C5">
-    <cfRule type="expression" dxfId="19" priority="17">
+    <cfRule type="expression" dxfId="14" priority="17">
       <formula>AND($A5="end group", $B5 = "", $C5 = "", $D5 = "", $E5 = "", $F5 = "", $G5 = "", $H5 = "", $I5 = "", $J5 = "", $K5 = "", $L5 = "", $M5 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:C5">
-    <cfRule type="cellIs" dxfId="18" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="18" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="expression" dxfId="23" priority="19">
+    <cfRule type="expression" dxfId="12" priority="19">
       <formula>AND(AND(NOT($A5 = "end group"), NOT($A5 = "end repeat"), NOT($A5 = "")), $C5 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5">
-    <cfRule type="expression" dxfId="17" priority="20">
+    <cfRule type="expression" dxfId="11" priority="20">
       <formula>AND(AND(NOT($A5 = "end group"), NOT($A5 = "end repeat"), NOT($A5 = "")), $B5 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="cellIs" dxfId="22" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="21" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5">
-    <cfRule type="expression" dxfId="16" priority="22">
+    <cfRule type="expression" dxfId="9" priority="22">
       <formula>COUNTIF($B$2:$B$972,B5)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:C5">
-    <cfRule type="expression" dxfId="15" priority="23">
+    <cfRule type="expression" dxfId="8" priority="23">
       <formula>AND($A5="begin repeat", NOT($B5 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:C5">
-    <cfRule type="expression" dxfId="14" priority="24">
+    <cfRule type="expression" dxfId="7" priority="24">
       <formula>AND($A5="end repeat", $B5 = "", $C5 = "", $D5 = "", $E5 = "", $F5 = "", $G5 = "", $H5 = "", $I5 = "", $J5 = "", $K5 = "", $L5 = "", $M5 = "")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -35593,7 +35516,7 @@
       </c>
       <c r="C2" s="12">
         <f ca="1">NOW()</f>
-        <v>44837.668474999999</v>
+        <v>44839.660269328706</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>49</v>

--- a/forms/contact/chw_supervisor-create.xlsx
+++ b/forms/contact/chw_supervisor-create.xlsx
@@ -392,7 +392,7 @@
     <t>facility_id</t>
   </si>
   <si>
-    <t>../init/person_name</t>
+    <t>../person_name</t>
   </si>
 </sst>
 </file>
@@ -1284,7 +1284,7 @@
   <dimension ref="A1:AC999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="K10" sqref="K10"/>
@@ -35516,7 +35516,7 @@
       </c>
       <c r="C2" s="12">
         <f ca="1">NOW()</f>
-        <v>44839.660269328706</v>
+        <v>44839.667369328701</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>49</v>
